--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.887536558585589</v>
+        <v>1.029662</v>
       </c>
       <c r="H2">
-        <v>0.887536558585589</v>
+        <v>3.088986</v>
       </c>
       <c r="I2">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098726</v>
       </c>
       <c r="J2">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098728</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>125.737090674108</v>
+        <v>158.0829950454747</v>
       </c>
       <c r="R2">
-        <v>125.737090674108</v>
+        <v>1422.746955409272</v>
       </c>
       <c r="S2">
-        <v>0.002436284010297573</v>
+        <v>0.002628261467229324</v>
       </c>
       <c r="T2">
-        <v>0.002436284010297573</v>
+        <v>0.002628261467229324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.887536558585589</v>
+        <v>1.029662</v>
       </c>
       <c r="H3">
-        <v>0.887536558585589</v>
+        <v>3.088986</v>
       </c>
       <c r="I3">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098726</v>
       </c>
       <c r="J3">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098728</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>149.6547386248672</v>
+        <v>173.8066394471654</v>
       </c>
       <c r="R3">
-        <v>149.6547386248672</v>
+        <v>1564.259755024488</v>
       </c>
       <c r="S3">
-        <v>0.002899712764326794</v>
+        <v>0.002889680152354133</v>
       </c>
       <c r="T3">
-        <v>0.002899712764326794</v>
+        <v>0.002889680152354134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.887536558585589</v>
+        <v>1.029662</v>
       </c>
       <c r="H4">
-        <v>0.887536558585589</v>
+        <v>3.088986</v>
       </c>
       <c r="I4">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098726</v>
       </c>
       <c r="J4">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098728</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>54.66656639554935</v>
+        <v>70.11001850404666</v>
       </c>
       <c r="R4">
-        <v>54.66656639554935</v>
+        <v>630.99016653642</v>
       </c>
       <c r="S4">
-        <v>0.001059220321492398</v>
+        <v>0.001165637455489211</v>
       </c>
       <c r="T4">
-        <v>0.001059220321492398</v>
+        <v>0.001165637455489212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.887536558585589</v>
+        <v>1.029662</v>
       </c>
       <c r="H5">
-        <v>0.887536558585589</v>
+        <v>3.088986</v>
       </c>
       <c r="I5">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098726</v>
       </c>
       <c r="J5">
-        <v>0.007774100304766118</v>
+        <v>0.008285277389098728</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>71.16443005090034</v>
+        <v>96.33792900652601</v>
       </c>
       <c r="R5">
-        <v>71.16443005090034</v>
+        <v>867.0413610587341</v>
       </c>
       <c r="S5">
-        <v>0.001378883208649352</v>
+        <v>0.001601698314026058</v>
       </c>
       <c r="T5">
-        <v>0.001378883208649352</v>
+        <v>0.001601698314026058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.955908165619506</v>
+        <v>1.017189</v>
       </c>
       <c r="H6">
-        <v>0.955908165619506</v>
+        <v>3.051567</v>
       </c>
       <c r="I6">
-        <v>0.008372980120969729</v>
+        <v>0.00818491215771772</v>
       </c>
       <c r="J6">
-        <v>0.008372980120969729</v>
+        <v>0.008184912157717722</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>135.4232797893579</v>
+        <v>156.168027612276</v>
       </c>
       <c r="R6">
-        <v>135.4232797893579</v>
+        <v>1405.512248510484</v>
       </c>
       <c r="S6">
-        <v>0.002623963775557652</v>
+        <v>0.002596423538587933</v>
       </c>
       <c r="T6">
-        <v>0.002623963775557652</v>
+        <v>0.002596423538587933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.955908165619506</v>
+        <v>1.017189</v>
       </c>
       <c r="H7">
-        <v>0.955908165619506</v>
+        <v>3.051567</v>
       </c>
       <c r="I7">
-        <v>0.008372980120969729</v>
+        <v>0.00818491215771772</v>
       </c>
       <c r="J7">
-        <v>0.008372980120969729</v>
+        <v>0.008184912157717722</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>161.183429900784</v>
+        <v>171.701200755804</v>
       </c>
       <c r="R7">
-        <v>161.183429900784</v>
+        <v>1545.310806802236</v>
       </c>
       <c r="S7">
-        <v>0.003123092882831136</v>
+        <v>0.002854675480393515</v>
       </c>
       <c r="T7">
-        <v>0.003123092882831136</v>
+        <v>0.002854675480393516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.955908165619506</v>
+        <v>1.017189</v>
       </c>
       <c r="H8">
-        <v>0.955908165619506</v>
+        <v>3.051567</v>
       </c>
       <c r="I8">
-        <v>0.008372980120969729</v>
+        <v>0.00818491215771772</v>
       </c>
       <c r="J8">
-        <v>0.008372980120969729</v>
+        <v>0.008184912157717722</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>58.87781939615416</v>
+        <v>69.26072790110999</v>
       </c>
       <c r="R8">
-        <v>58.87781939615416</v>
+        <v>623.3465511099899</v>
       </c>
       <c r="S8">
-        <v>0.001140817631352884</v>
+        <v>0.001151517291802179</v>
       </c>
       <c r="T8">
-        <v>0.001140817631352884</v>
+        <v>0.00115151729180218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.955908165619506</v>
+        <v>1.017189</v>
       </c>
       <c r="H9">
-        <v>0.955908165619506</v>
+        <v>3.051567</v>
       </c>
       <c r="I9">
-        <v>0.008372980120969729</v>
+        <v>0.00818491215771772</v>
       </c>
       <c r="J9">
-        <v>0.008372980120969729</v>
+        <v>0.008184912157717722</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>76.64660022086704</v>
+        <v>95.170921786197</v>
       </c>
       <c r="R9">
-        <v>76.64660022086704</v>
+        <v>856.538296075773</v>
       </c>
       <c r="S9">
-        <v>0.001485105831228058</v>
+        <v>0.001582295846934093</v>
       </c>
       <c r="T9">
-        <v>0.001485105831228058</v>
+        <v>0.001582295846934093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.763953374802</v>
+        <v>120.9972243333333</v>
       </c>
       <c r="H10">
-        <v>111.763953374802</v>
+        <v>362.991673</v>
       </c>
       <c r="I10">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="J10">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>15833.57237923747</v>
+        <v>18576.58495195755</v>
       </c>
       <c r="R10">
-        <v>15833.57237923747</v>
+        <v>167189.264567618</v>
       </c>
       <c r="S10">
-        <v>0.3067915680776046</v>
+        <v>0.3088511981184139</v>
       </c>
       <c r="T10">
-        <v>0.3067915680776046</v>
+        <v>0.3088511981184139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.763953374802</v>
+        <v>120.9972243333333</v>
       </c>
       <c r="H11">
-        <v>111.763953374802</v>
+        <v>362.991673</v>
       </c>
       <c r="I11">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="J11">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>18845.42678066469</v>
+        <v>20424.29549095863</v>
       </c>
       <c r="R11">
-        <v>18845.42678066469</v>
+        <v>183818.6594186277</v>
       </c>
       <c r="S11">
-        <v>0.3651493102537761</v>
+        <v>0.3395709248724085</v>
       </c>
       <c r="T11">
-        <v>0.3651493102537761</v>
+        <v>0.3395709248724085</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>111.763953374802</v>
+        <v>120.9972243333333</v>
       </c>
       <c r="H12">
-        <v>111.763953374802</v>
+        <v>362.991673</v>
       </c>
       <c r="I12">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="J12">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>6883.94356118628</v>
+        <v>8238.740127292534</v>
       </c>
       <c r="R12">
-        <v>6883.94356118628</v>
+        <v>74148.66114563281</v>
       </c>
       <c r="S12">
-        <v>0.1333834076802179</v>
+        <v>0.1369759170418681</v>
       </c>
       <c r="T12">
-        <v>0.1333834076802179</v>
+        <v>0.1369759170418681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>111.763953374802</v>
+        <v>120.9972243333333</v>
       </c>
       <c r="H13">
-        <v>111.763953374802</v>
+        <v>362.991673</v>
       </c>
       <c r="I13">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="J13">
-        <v>0.9789615713155168</v>
+        <v>0.9736161642487271</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>8961.453998952293</v>
+        <v>11320.82373420731</v>
       </c>
       <c r="R13">
-        <v>8961.453998952293</v>
+        <v>101887.4136078658</v>
       </c>
       <c r="S13">
-        <v>0.1736372853039181</v>
+        <v>0.1882181242160366</v>
       </c>
       <c r="T13">
-        <v>0.1736372853039181</v>
+        <v>0.1882181242160366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.558424799040815</v>
+        <v>1.232029333333333</v>
       </c>
       <c r="H14">
-        <v>0.558424799040815</v>
+        <v>3.696088</v>
       </c>
       <c r="I14">
-        <v>0.004891348258747262</v>
+        <v>0.009913646204456457</v>
       </c>
       <c r="J14">
-        <v>0.004891348258747262</v>
+        <v>0.009913646204456457</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>79.11190689830541</v>
+        <v>189.1522528725084</v>
       </c>
       <c r="R14">
-        <v>79.11190689830541</v>
+        <v>1702.370275852576</v>
       </c>
       <c r="S14">
-        <v>0.001532873655396107</v>
+        <v>0.003144813757617773</v>
       </c>
       <c r="T14">
-        <v>0.001532873655396107</v>
+        <v>0.003144813757617774</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.558424799040815</v>
+        <v>1.232029333333333</v>
       </c>
       <c r="H15">
-        <v>0.558424799040815</v>
+        <v>3.696088</v>
       </c>
       <c r="I15">
-        <v>0.004891348258747262</v>
+        <v>0.009913646204456457</v>
       </c>
       <c r="J15">
-        <v>0.004891348258747262</v>
+        <v>0.009913646204456457</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>94.16053517308497</v>
+        <v>207.9661851432783</v>
       </c>
       <c r="R15">
-        <v>94.16053517308497</v>
+        <v>1871.695666289504</v>
       </c>
       <c r="S15">
-        <v>0.001824456133137554</v>
+        <v>0.003457611052608941</v>
       </c>
       <c r="T15">
-        <v>0.001824456133137554</v>
+        <v>0.003457611052608941</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.558424799040815</v>
+        <v>1.232029333333333</v>
       </c>
       <c r="H16">
-        <v>0.558424799040815</v>
+        <v>3.696088</v>
       </c>
       <c r="I16">
-        <v>0.004891348258747262</v>
+        <v>0.009913646204456457</v>
       </c>
       <c r="J16">
-        <v>0.004891348258747262</v>
+        <v>0.009913646204456457</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>34.39539031759462</v>
+        <v>83.88927566281778</v>
       </c>
       <c r="R16">
-        <v>34.39539031759462</v>
+        <v>755.00348096536</v>
       </c>
       <c r="S16">
-        <v>0.0006664456685727605</v>
+        <v>0.001394729083130907</v>
       </c>
       <c r="T16">
-        <v>0.0006664456685727605</v>
+        <v>0.001394729083130908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.558424799040815</v>
+        <v>1.232029333333333</v>
       </c>
       <c r="H17">
-        <v>0.558424799040815</v>
+        <v>3.696088</v>
       </c>
       <c r="I17">
-        <v>0.004891348258747262</v>
+        <v>0.009913646204456457</v>
       </c>
       <c r="J17">
-        <v>0.004891348258747262</v>
+        <v>0.009913646204456457</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>44.77560069565952</v>
+        <v>115.2719576410747</v>
       </c>
       <c r="R17">
-        <v>44.77560069565952</v>
+        <v>1037.447618769672</v>
       </c>
       <c r="S17">
-        <v>0.0008675728016408396</v>
+        <v>0.001916492311098835</v>
       </c>
       <c r="T17">
-        <v>0.0008675728016408396</v>
+        <v>0.001916492311098835</v>
       </c>
     </row>
   </sheetData>
